--- a/ValueSet-molicavc-functionalstatus-valueset.xlsx
+++ b/ValueSet-molicavc-functionalstatus-valueset.xlsx
@@ -7,7 +7,7 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from stroke" r:id="rId4" sheetId="2"/>
+    <sheet name="Include from " r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-31T16:41:42-03:00</t>
+    <t>2023-09-08T18:23:11-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -118,7 +118,7 @@
     <t>System URI</t>
   </si>
   <si>
-    <t>https://connect.ichom.org/patient-centered-outcome-measures/stroke</t>
+    <t>https://connect.ichom.org/patient-centered-outcome-measures/stroke/functionalstatus/</t>
   </si>
 </sst>
 </file>
